--- a/biology/Botanique/Corrigiole_des_rives/Corrigiole_des_rives.xlsx
+++ b/biology/Botanique/Corrigiole_des_rives/Corrigiole_des_rives.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corrigiola litoralis
 La Corrigiole des rives (Corrigiola litoralis L. parfois orthographié C. littoralis), également appelée Corrigiole des grèves, est une plante annuelle à feuilles alternes, haute de 5 à 25 cm, dont les fleurs à pétales blancs très petits apparaissent de juin à octobre.
@@ -515,13 +527,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractéristiques
-Organes reproducteurs
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : blanc
 Inflorescence : cyme capituliforme
 Sexualité : hermaphrodite
 Pollinisation : entomogame
-La floraison a lieu de mars à septembre[1].
+La floraison a lieu de mars à septembre.
 Graine
 Fruit : capsule
 Dissémination : barochore
